--- a/Test Layout.xlsx
+++ b/Test Layout.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="40">
   <si>
     <t>Kitchen</t>
   </si>
@@ -361,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -458,18 +459,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,8 +484,39 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -801,7 +821,7 @@
   <dimension ref="A1:AD32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,7 +904,7 @@
       <c r="Q1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="38" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="13" t="s">
@@ -1071,10 +1091,10 @@
       <c r="Z3">
         <v>2</v>
       </c>
-      <c r="AC3" s="36" t="s">
+      <c r="AC3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AD3" s="37"/>
+      <c r="AD3" s="47"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -1205,7 +1225,7 @@
       <c r="N5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="48" t="s">
+      <c r="O5" s="44" t="s">
         <v>25</v>
       </c>
       <c r="P5" s="18" t="s">
@@ -1335,7 +1355,7 @@
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="41" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -1407,7 +1427,7 @@
       <c r="X7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Y7" s="43" t="s">
+      <c r="Y7" s="39" t="s">
         <v>17</v>
       </c>
       <c r="Z7">
@@ -1872,7 +1892,7 @@
       <c r="G13" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="46" t="s">
+      <c r="H13" s="42" t="s">
         <v>17</v>
       </c>
       <c r="I13" s="13" t="s">
@@ -1955,7 +1975,7 @@
       <c r="F14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="47" t="s">
+      <c r="G14" s="43" t="s">
         <v>32</v>
       </c>
       <c r="H14" s="13" t="s">
@@ -2071,7 +2091,7 @@
       <c r="P15" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Q15" s="40" t="s">
+      <c r="Q15" s="36" t="s">
         <v>17</v>
       </c>
       <c r="R15" s="13" t="s">
@@ -2302,7 +2322,7 @@
       <c r="M18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="N18" s="46" t="s">
+      <c r="N18" s="42" t="s">
         <v>17</v>
       </c>
       <c r="O18" s="13" t="s">
@@ -2877,7 +2897,7 @@
       <c r="R25" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="S25" s="44" t="s">
+      <c r="S25" s="40" t="s">
         <v>17</v>
       </c>
       <c r="T25" s="17" t="s">
@@ -2980,56 +3000,56 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3046,1938 +3066,4207 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y25"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="25" width="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="50">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="51">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="51">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="51">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="51">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="52">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="50">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="51">
         <v>7</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="51">
         <v>8</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="51">
         <v>9</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="50">
         <v>10</v>
       </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
+      <c r="L1" s="51">
+        <v>11</v>
+      </c>
+      <c r="M1" s="51">
         <v>12</v>
       </c>
-      <c r="N1">
-        <v>13</v>
-      </c>
-      <c r="O1">
-        <v>14</v>
-      </c>
-      <c r="P1">
-        <v>15</v>
-      </c>
-      <c r="Q1">
+      <c r="N1" s="51">
+        <v>13</v>
+      </c>
+      <c r="O1" s="51">
+        <v>14</v>
+      </c>
+      <c r="P1" s="51">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="52">
         <v>16</v>
       </c>
-      <c r="R1">
-        <v>17</v>
-      </c>
-      <c r="S1">
+      <c r="R1" s="64">
+        <v>17</v>
+      </c>
+      <c r="S1" s="63">
         <v>18</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="50">
         <v>19</v>
       </c>
-      <c r="U1">
-        <v>20</v>
-      </c>
-      <c r="V1">
-        <v>21</v>
-      </c>
-      <c r="W1">
-        <v>22</v>
-      </c>
-      <c r="X1">
+      <c r="U1" s="51">
+        <v>20</v>
+      </c>
+      <c r="V1" s="51">
+        <v>21</v>
+      </c>
+      <c r="W1" s="51">
+        <v>22</v>
+      </c>
+      <c r="X1" s="51">
         <v>23</v>
       </c>
-      <c r="Y1">
+      <c r="Y1" s="52">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="Z1" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="53">
         <v>25</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="54">
         <v>26</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="54">
         <v>27</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="54">
         <v>28</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="54">
         <v>29</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="55">
         <v>30</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="53">
         <v>31</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="54">
         <v>32</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="54">
         <v>33</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="54">
         <v>34</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="53">
         <v>35</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="54">
         <v>36</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="54">
         <v>37</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="54">
         <v>38</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="54">
         <v>39</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="54">
         <v>40</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="55">
         <v>41</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="60">
         <v>42</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="60">
         <v>43</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="53">
         <v>44</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="54">
         <v>45</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="54">
         <v>46</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="54">
         <v>47</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="54">
         <v>48</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="55">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="Z2" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="53">
         <v>50</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="54">
         <v>51</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="54">
         <v>52</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="54">
         <v>53</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="54">
         <v>54</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="55">
         <v>55</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="56">
         <v>56</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="57">
         <v>57</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="65">
         <v>58</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="57">
         <v>59</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="53">
         <v>60</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="54">
         <v>61</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="54">
         <v>62</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="54">
         <v>63</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="54">
         <v>64</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="54">
         <v>65</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="55">
         <v>66</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="60">
         <v>67</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="60">
         <v>68</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="66">
         <v>69</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="54">
         <v>70</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="54">
         <v>71</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="54">
         <v>72</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="54">
         <v>73</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="55">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="Z3" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="53">
         <v>75</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="54">
         <v>76</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="54">
         <v>77</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="54">
         <v>78</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="54">
         <v>79</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="55">
         <v>80</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="60">
         <v>81</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="60">
         <v>82</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="60">
         <v>83</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="60">
         <v>84</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="53">
         <v>85</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="54">
         <v>86</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="54">
         <v>87</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="54">
         <v>88</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="54">
         <v>89</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="54">
         <v>90</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="55">
         <v>91</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="60">
         <v>92</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="60">
         <v>93</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="53">
         <v>94</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="54">
         <v>95</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="54">
         <v>96</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="54">
         <v>97</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="54">
         <v>98</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="55">
         <v>99</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="Z4" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="56">
         <v>100</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="57">
         <v>101</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="65">
         <v>102</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="57">
         <v>103</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="57">
         <v>104</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="58">
         <v>105</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="60">
         <v>106</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="60">
         <v>107</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="60">
         <v>108</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="60">
         <v>109</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="56">
         <v>110</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="57">
         <v>111</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="57">
         <v>112</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="57">
         <v>113</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="65">
         <v>114</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="57">
         <v>115</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="58">
         <v>116</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="60">
         <v>117</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="60">
         <v>118</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="56">
         <v>119</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="57">
         <v>120</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="57">
         <v>121</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="65">
         <v>122</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="57">
         <v>123</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="58">
         <v>124</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="Z5" s="37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="60">
         <v>125</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="60">
         <v>126</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="60">
         <v>127</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="60">
         <v>128</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="60">
         <v>129</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="60">
         <v>130</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="60">
         <v>131</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="60">
         <v>132</v>
       </c>
-      <c r="I6" s="49">
+      <c r="I6" s="60">
         <v>133</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="60">
         <v>134</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="60">
         <v>135</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="60">
         <v>136</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="60">
         <v>137</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="60">
         <v>138</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="60">
         <v>139</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="60">
         <v>140</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="60">
         <v>141</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="60">
         <v>142</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="60">
         <v>143</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="60">
         <v>144</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="60">
         <v>145</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="60">
         <v>146</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="60">
         <v>147</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="60">
         <v>148</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="63">
         <v>149</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="Z6" s="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="60">
         <v>150</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="60">
         <v>151</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="60">
         <v>152</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="60">
         <v>153</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="60">
         <v>154</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="60">
         <v>155</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="60">
         <v>156</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="60">
         <v>157</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="60">
         <v>158</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="60">
         <v>159</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="60">
         <v>160</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="60">
         <v>161</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="60">
         <v>162</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="60">
         <v>163</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="60">
         <v>164</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="60">
         <v>165</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="60">
         <v>166</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="60">
         <v>167</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="60">
         <v>168</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="60">
         <v>169</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="60">
         <v>170</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="60">
         <v>171</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="60">
         <v>172</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="60">
         <v>173</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="62">
         <v>174</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="Z7" s="37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="50">
         <v>175</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="51">
         <v>176</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="51">
         <v>177</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="51">
         <v>178</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="51">
         <v>179</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="51">
         <v>180</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="52">
         <v>181</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="60">
         <v>182</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="60">
         <v>183</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="59">
         <v>184</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="59">
         <v>185</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="59">
         <v>186</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="59">
         <v>187</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="59">
         <v>188</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="60">
         <v>189</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="60">
         <v>190</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="50">
         <v>191</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="51">
         <v>192</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="51">
         <v>193</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="51">
         <v>194</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="51">
         <v>195</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="51">
         <v>196</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="51">
         <v>197</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="51">
         <v>198</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="52">
         <v>199</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="Z8" s="37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="53">
         <v>200</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="54">
         <v>201</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="54">
         <v>202</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="54">
         <v>203</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="54">
         <v>204</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="54">
         <v>205</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="55">
         <v>206</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="60">
         <v>207</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="60">
         <v>208</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="59">
         <v>209</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="59">
         <v>210</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="59">
         <v>211</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="59">
         <v>212</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="59">
         <v>213</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="60">
         <v>214</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="60">
         <v>215</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="53">
         <v>216</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="54">
         <v>217</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="54">
         <v>218</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="54">
         <v>219</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="54">
         <v>220</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="54">
         <v>221</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="54">
         <v>222</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="54">
         <v>223</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="55">
         <v>224</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="Z9" s="37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="53">
         <v>225</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="54">
         <v>226</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="54">
         <v>227</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="54">
         <v>228</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="54">
         <v>229</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="54">
         <v>230</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="55">
         <v>231</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="60">
         <v>232</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="60">
         <v>233</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="59">
         <v>234</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="59">
         <v>235</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="59">
         <v>236</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="59">
         <v>237</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="59">
         <v>238</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="60">
         <v>239</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="60">
         <v>240</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="66">
         <v>241</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="54">
         <v>242</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="54">
         <v>243</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="54">
         <v>244</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="54">
         <v>245</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="54">
         <v>246</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="54">
         <v>247</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="54">
         <v>248</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="55">
         <v>249</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="Z10" s="37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="53">
         <v>250</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="54">
         <v>251</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="54">
         <v>252</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="54">
         <v>253</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="54">
         <v>254</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="54">
         <v>255</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="55">
         <v>256</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="60">
         <v>257</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="60">
         <v>258</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="59">
         <v>259</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="59">
         <v>260</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="59">
         <v>261</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="59">
         <v>262</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="59">
         <v>263</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="60">
         <v>264</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="60">
         <v>265</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="53">
         <v>266</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="54">
         <v>267</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="54">
         <v>268</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="54">
         <v>269</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="54">
         <v>270</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="54">
         <v>271</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="54">
         <v>272</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="54">
         <v>273</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="55">
         <v>274</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="Z11" s="37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="53">
         <v>275</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="54">
         <v>276</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="54">
         <v>277</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="54">
         <v>278</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="54">
         <v>279</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="54">
         <v>280</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="68">
         <v>281</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="60">
         <v>282</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="60">
         <v>283</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="59">
         <v>284</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="59">
         <v>285</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="59">
         <v>286</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="59">
         <v>287</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="59">
         <v>288</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="60">
         <v>289</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="60">
         <v>290</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="56">
         <v>291</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="57">
         <v>292</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="57">
         <v>293</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="57">
         <v>294</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="57">
         <v>295</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="65">
         <v>296</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="57">
         <v>297</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="57">
         <v>298</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="58">
         <v>299</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="Z12" s="37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="53">
         <v>300</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="54">
         <v>301</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="54">
         <v>302</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="54">
         <v>303</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="54">
         <v>304</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="54">
         <v>305</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="68">
         <v>306</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="60">
         <v>307</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="60">
         <v>308</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="59">
         <v>309</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="59">
         <v>310</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="59">
         <v>311</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="59">
         <v>312</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="59">
         <v>313</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="60">
         <v>314</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="60">
         <v>315</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="60">
         <v>316</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="60">
         <v>317</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="60">
         <v>318</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="60">
         <v>319</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="60">
         <v>320</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="60">
         <v>321</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="60">
         <v>322</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="60">
         <v>323</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="63">
         <v>324</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="Z13" s="37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="53">
         <v>325</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="54">
         <v>326</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="54">
         <v>327</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="54">
         <v>328</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="54">
         <v>329</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="54">
         <v>330</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="68">
         <v>331</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="60">
         <v>332</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="60">
         <v>333</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="59">
         <v>334</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="59">
         <v>335</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="59">
         <v>336</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="59">
         <v>337</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="59">
         <v>338</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="60">
         <v>339</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="60">
         <v>340</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="60">
         <v>341</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="60">
         <v>342</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="60">
         <v>343</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="60">
         <v>344</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="60">
         <v>345</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="60">
         <v>346</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="60">
         <v>347</v>
       </c>
-      <c r="X14">
+      <c r="X14" s="60">
         <v>348</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" s="62">
         <v>349</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="Z14" s="37">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="53">
         <v>350</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="54">
         <v>351</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="54">
         <v>352</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="54">
         <v>353</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="54">
         <v>354</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="54">
         <v>355</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="55">
         <v>356</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="60">
         <v>357</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="60">
         <v>358</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="59">
         <v>359</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="59">
         <v>360</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="59">
         <v>361</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="59">
         <v>362</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="59">
         <v>363</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="60">
         <v>364</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="60">
         <v>365</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="60">
         <v>366</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="60">
         <v>367</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="60">
         <v>368</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="50">
         <v>369</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="51">
         <v>370</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="51">
         <v>371</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="67">
         <v>372</v>
       </c>
-      <c r="X15">
+      <c r="X15" s="51">
         <v>373</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" s="52">
         <v>374</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="Z15" s="37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="53">
         <v>375</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="54">
         <v>376</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="54">
         <v>377</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="54">
         <v>378</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="54">
         <v>379</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="54">
         <v>380</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="55">
         <v>381</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="60">
         <v>382</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="60">
         <v>383</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="60">
         <v>384</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="60">
         <v>385</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="60">
         <v>386</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="60">
         <v>387</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="60">
         <v>388</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="60">
         <v>389</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="60">
         <v>390</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="60">
         <v>391</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="60">
         <v>392</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="60">
         <v>393</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="53">
         <v>394</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="54">
         <v>395</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="54">
         <v>396</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="54">
         <v>397</v>
       </c>
-      <c r="X16">
+      <c r="X16" s="54">
         <v>398</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" s="55">
         <v>399</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="Z16" s="37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="53">
         <v>400</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="54">
         <v>401</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="54">
         <v>402</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="54">
         <v>403</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="54">
         <v>404</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="54">
         <v>405</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="55">
         <v>406</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="60">
         <v>407</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="60">
         <v>408</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="60">
         <v>409</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="60">
         <v>410</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="60">
         <v>411</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="60">
         <v>412</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="60">
         <v>413</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="60">
         <v>414</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="60">
         <v>415</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="60">
         <v>416</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="60">
         <v>417</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="60">
         <v>418</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="53">
         <v>419</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="54">
         <v>420</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="54">
         <v>421</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="54">
         <v>422</v>
       </c>
-      <c r="X17">
+      <c r="X17" s="54">
         <v>423</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" s="55">
         <v>424</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="Z17" s="37">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="56">
         <v>425</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="57">
         <v>426</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="57">
         <v>427</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="57">
         <v>428</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="57">
         <v>429</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="57">
         <v>430</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="58">
         <v>431</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="60">
         <v>432</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="60">
         <v>433</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="60">
         <v>434</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="60">
         <v>435</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="60">
         <v>436</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="60">
         <v>437</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="60">
         <v>438</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="60">
         <v>439</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="60">
         <v>440</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="60">
         <v>441</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="60">
         <v>442</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="60">
         <v>443</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="53">
         <v>444</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="54">
         <v>445</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="54">
         <v>446</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="54">
         <v>447</v>
       </c>
-      <c r="X18">
+      <c r="X18" s="54">
         <v>448</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" s="55">
         <v>449</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="Z18" s="37">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="60">
         <v>450</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="60">
         <v>451</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="60">
         <v>452</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="60">
         <v>453</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="60">
         <v>454</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="60">
         <v>455</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="60">
         <v>456</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="60">
         <v>457</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="60">
         <v>458</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="50">
         <v>459</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="51">
         <v>460</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="51">
         <v>461</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="51">
         <v>462</v>
       </c>
-      <c r="N19" s="49">
+      <c r="N19" s="67">
         <v>463</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="51">
         <v>464</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="51">
         <v>465</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="52">
         <v>466</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="60">
         <v>467</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="60">
         <v>468</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="53">
         <v>469</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="54">
         <v>470</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="54">
         <v>471</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="54">
         <v>472</v>
       </c>
-      <c r="X19">
+      <c r="X19" s="54">
         <v>473</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" s="55">
         <v>474</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="Z19" s="37">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="60">
         <v>475</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="60">
         <v>476</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="60">
         <v>477</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="60">
         <v>478</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="60">
         <v>479</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="60">
         <v>480</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="60">
         <v>481</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="60">
         <v>482</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="60">
         <v>483</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="53">
         <v>484</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="54">
         <v>485</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="54">
         <v>486</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="54">
         <v>487</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="54">
         <v>488</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="54">
         <v>489</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="54">
         <v>490</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="55">
         <v>491</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="60">
         <v>492</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="60">
         <v>493</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="53">
         <v>494</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="54">
         <v>495</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="54">
         <v>496</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="54">
         <v>497</v>
       </c>
-      <c r="X20">
+      <c r="X20" s="54">
         <v>498</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" s="55">
         <v>499</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="Z20" s="37">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="50">
         <v>500</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="51">
         <v>501</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="51">
         <v>502</v>
       </c>
-      <c r="D21" s="50">
+      <c r="D21" s="69">
         <v>503</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="51">
         <v>504</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="51">
         <v>505</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="51">
         <v>506</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="51">
         <v>507</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="51">
         <v>508</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="53">
         <v>509</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="54">
         <v>510</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="54">
         <v>511</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="54">
         <v>512</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="54">
         <v>513</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="54">
         <v>514</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="54">
         <v>515</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="55">
         <v>516</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="60">
         <v>517</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="60">
         <v>518</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="53">
         <v>519</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="54">
         <v>520</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="54">
         <v>521</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="54">
         <v>522</v>
       </c>
-      <c r="X21">
+      <c r="X21" s="54">
         <v>523</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="55">
         <v>524</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="Z21" s="37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="53">
         <v>525</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="54">
         <v>526</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="54">
         <v>527</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="54">
         <v>528</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="54">
         <v>529</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="54">
         <v>530</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="54">
         <v>531</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="54">
         <v>532</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="54">
         <v>533</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="53">
         <v>534</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="54">
         <v>535</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="54">
         <v>536</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="54">
         <v>537</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="54">
         <v>538</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="54">
         <v>539</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="54">
         <v>540</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="68">
         <v>541</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="60">
         <v>542</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="60">
         <v>543</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="53">
         <v>544</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="54">
         <v>545</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="54">
         <v>546</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="54">
         <v>547</v>
       </c>
-      <c r="X22">
+      <c r="X22" s="54">
         <v>548</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" s="55">
         <v>549</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="Z22" s="37">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="53">
         <v>550</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="54">
         <v>551</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="54">
         <v>552</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="54">
         <v>553</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="54">
         <v>554</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="54">
         <v>555</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="54">
         <v>556</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="54">
         <v>557</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="54">
         <v>558</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="53">
         <v>559</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="54">
         <v>560</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="54">
         <v>561</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="54">
         <v>562</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="54">
         <v>563</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="54">
         <v>564</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="54">
         <v>565</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="55">
         <v>566</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="60">
         <v>567</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="60">
         <v>568</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="53">
         <v>569</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="54">
         <v>570</v>
       </c>
-      <c r="V23">
+      <c r="V23" s="54">
         <v>571</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="54">
         <v>572</v>
       </c>
-      <c r="X23">
+      <c r="X23" s="54">
         <v>573</v>
       </c>
-      <c r="Y23">
+      <c r="Y23" s="55">
         <v>574</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="Z23" s="37">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="53">
         <v>575</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="54">
         <v>576</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="54">
         <v>577</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="54">
         <v>578</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="54">
         <v>579</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="54">
         <v>580</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="54">
         <v>581</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="54">
         <v>582</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="54">
         <v>583</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="53">
         <v>584</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="54">
         <v>585</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="54">
         <v>586</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="54">
         <v>587</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="54">
         <v>588</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="54">
         <v>589</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="54">
         <v>590</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="55">
         <v>591</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="60">
         <v>592</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="60">
         <v>593</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="53">
         <v>594</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="54">
         <v>595</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="54">
         <v>596</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="54">
         <v>597</v>
       </c>
-      <c r="X24">
+      <c r="X24" s="54">
         <v>598</v>
       </c>
-      <c r="Y24">
+      <c r="Y24" s="55">
         <v>599</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="Z24" s="37">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="56">
         <v>600</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="57">
         <v>601</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="57">
         <v>602</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="57">
         <v>603</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="57">
         <v>604</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="57">
         <v>605</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="57">
         <v>606</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="57">
         <v>607</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="57">
         <v>608</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="56">
         <v>609</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="57">
         <v>610</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="57">
         <v>611</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="57">
         <v>612</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="57">
         <v>613</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="57">
         <v>614</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="57">
         <v>615</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="58">
         <v>616</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="61">
         <v>617</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="62">
         <v>618</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="56">
         <v>619</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="57">
         <v>620</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="57">
         <v>621</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="57">
         <v>622</v>
       </c>
-      <c r="X25">
+      <c r="X25" s="57">
         <v>623</v>
       </c>
-      <c r="Y25">
+      <c r="Y25" s="58">
         <v>624</v>
       </c>
+      <c r="Z25" s="37">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="37">
+        <v>0</v>
+      </c>
+      <c r="B26" s="37">
+        <v>1</v>
+      </c>
+      <c r="C26" s="37">
+        <v>2</v>
+      </c>
+      <c r="D26" s="37">
+        <v>3</v>
+      </c>
+      <c r="E26" s="37">
+        <v>4</v>
+      </c>
+      <c r="F26" s="37">
+        <v>5</v>
+      </c>
+      <c r="G26" s="37">
+        <v>6</v>
+      </c>
+      <c r="H26" s="37">
+        <v>7</v>
+      </c>
+      <c r="I26" s="37">
+        <v>8</v>
+      </c>
+      <c r="J26" s="37">
+        <v>9</v>
+      </c>
+      <c r="K26" s="37">
+        <v>10</v>
+      </c>
+      <c r="L26" s="37">
+        <v>11</v>
+      </c>
+      <c r="M26" s="37">
+        <v>12</v>
+      </c>
+      <c r="N26" s="37">
+        <v>13</v>
+      </c>
+      <c r="O26" s="37">
+        <v>14</v>
+      </c>
+      <c r="P26" s="37">
+        <v>15</v>
+      </c>
+      <c r="Q26" s="37">
+        <v>16</v>
+      </c>
+      <c r="R26" s="37">
+        <v>17</v>
+      </c>
+      <c r="S26" s="37">
+        <v>18</v>
+      </c>
+      <c r="T26" s="37">
+        <v>19</v>
+      </c>
+      <c r="U26" s="37">
+        <v>20</v>
+      </c>
+      <c r="V26" s="37">
+        <v>21</v>
+      </c>
+      <c r="W26" s="37">
+        <v>22</v>
+      </c>
+      <c r="X26" s="37">
+        <v>23</v>
+      </c>
+      <c r="Y26" s="37">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="10">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z1" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z2" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z3" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="V4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="W4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="X4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z4" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="U5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="V5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="W5" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="X5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z5" s="37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y6" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z6" s="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="U7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="V7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="W7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y7" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z7" s="37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="V8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="W8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="X8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z8" s="37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="U9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="V9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="W9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="X9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z9" s="37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="U10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="V10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="W10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="X10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z10" s="37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="T11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="U11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="V11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="W11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="X11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z11" s="37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="U12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="V12" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="W12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="X12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z12" s="37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="U13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="V13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="W13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="X13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y13" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z13" s="37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="U14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="V14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="W14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="X14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y14" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z14" s="37">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q15" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="V15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="W15" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="X15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z15" s="37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="U16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="V16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="W16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="X16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z16" s="37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="U17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="V17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="W17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="X17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z17" s="37">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="R18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T18" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="V18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="W18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="X18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y18" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z18" s="37">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="O19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="U19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="V19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="W19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="X19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y19" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z19" s="37">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T20" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="U20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="V20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="W20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="X20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y20" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z20" s="37">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q21" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S21" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T21" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="U21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="V21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="W21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="X21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z21" s="37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="R22" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S22" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T22" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="U22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="V22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="W22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="X22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z22" s="37">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S23" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T23" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="U23" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="V23" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="W23" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="X23" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y23" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z23" s="37">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="R24" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S24" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T24" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="V24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="W24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="X24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y24" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z24" s="37">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="S25" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="T25" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="W25" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="X25" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y25" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z25" s="37">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="37">
+        <v>0</v>
+      </c>
+      <c r="B26" s="37">
+        <v>1</v>
+      </c>
+      <c r="C26" s="37">
+        <v>2</v>
+      </c>
+      <c r="D26" s="37">
+        <v>3</v>
+      </c>
+      <c r="E26" s="37">
+        <v>4</v>
+      </c>
+      <c r="F26" s="37">
+        <v>5</v>
+      </c>
+      <c r="G26" s="37">
+        <v>6</v>
+      </c>
+      <c r="H26" s="37">
+        <v>7</v>
+      </c>
+      <c r="I26" s="37">
+        <v>8</v>
+      </c>
+      <c r="J26" s="37">
+        <v>9</v>
+      </c>
+      <c r="K26" s="37">
+        <v>10</v>
+      </c>
+      <c r="L26" s="37">
+        <v>11</v>
+      </c>
+      <c r="M26" s="37">
+        <v>12</v>
+      </c>
+      <c r="N26" s="37">
+        <v>13</v>
+      </c>
+      <c r="O26" s="37">
+        <v>14</v>
+      </c>
+      <c r="P26" s="37">
+        <v>15</v>
+      </c>
+      <c r="Q26" s="37">
+        <v>16</v>
+      </c>
+      <c r="R26" s="37">
+        <v>17</v>
+      </c>
+      <c r="S26" s="37">
+        <v>18</v>
+      </c>
+      <c r="T26" s="37">
+        <v>19</v>
+      </c>
+      <c r="U26" s="37">
+        <v>20</v>
+      </c>
+      <c r="V26" s="37">
+        <v>21</v>
+      </c>
+      <c r="W26" s="37">
+        <v>22</v>
+      </c>
+      <c r="X26" s="37">
+        <v>23</v>
+      </c>
+      <c r="Y26" s="37">
+        <v>24</v>
+      </c>
+      <c r="Z26" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
